--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuana\University\The_Third_Year\HK242\Introduction AI\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04033C3B-7CA0-467E-98C1-5E0DD113946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3C328-984C-4AFB-9538-0A478293272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,10 @@
     <t>9x9-evil</t>
   </si>
   <si>
-    <t>12x12-basic</t>
-  </si>
-  <si>
-    <t>16x16-basic</t>
+    <t>16x16</t>
+  </si>
+  <si>
+    <t>12x12</t>
   </si>
 </sst>
 </file>
@@ -436,17 +436,17 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="33.796875" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="7" max="7" width="25.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="5" max="6" width="22.796875" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -480,10 +480,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3.7027834017062558E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="D2">
-        <v>1.0918749999999999</v>
+        <v>1.0919000000000001</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.4249839600524859E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>9.2941874999999996</v>
+        <v>9.2942</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -526,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4.5793457996915086E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>1.140625</v>
+        <v>1.1406000000000001</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1.5682255300402171E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D5">
-        <v>6.4774374999999997</v>
+        <v>6.4774000000000003</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8.3839476004359311E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D6">
-        <v>1.203125</v>
+        <v>1.2031000000000001</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -595,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>2.5609914100496099E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="D7">
-        <v>6.7508749999999997</v>
+        <v>6.7508999999999997</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -618,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>9.9162199008278554E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D8">
-        <v>1.265625</v>
+        <v>1.2656000000000001</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -641,10 +641,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.1181833199807441E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>7.1883749999999997</v>
+        <v>7.1883999999999997</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -664,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.438586060074158E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="D10">
-        <v>1.328125</v>
+        <v>1.3281000000000001</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -687,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.9743546899524522E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="D11">
-        <v>7.6258749999999997</v>
+        <v>7.6258999999999997</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -710,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>2.0755755698890429E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="D12">
-        <v>1.390625</v>
+        <v>1.3906000000000001</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>5.7634293999173677E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="D13">
-        <v>8.0633750000000006</v>
+        <v>8.0633999999999997</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>2.1215862499317159E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="D14">
-        <v>1.796875</v>
+        <v>1.7968999999999999</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -773,16 +773,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>5.6245605799136678E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>11.2049375</v>
+        <v>11.2049</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -796,16 +796,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>0.77346734430053043</v>
+        <v>0.82269999999999999</v>
       </c>
       <c r="D16">
-        <v>3.4293125</v>
+        <v>3.4293</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.34209489699976992</v>
+        <v>0.3659</v>
       </c>
       <c r="D17">
-        <v>22.900804687499999</v>
+        <v>22.9008</v>
       </c>
       <c r="E17">
         <v>1000</v>
